--- a/Smith-Hutton/Comparació de resultats....xlsx
+++ b/Smith-Hutton/Comparació de resultats....xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4695" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>UDS</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>real</t>
+  </si>
+  <si>
+    <t>PLDS</t>
+  </si>
+  <si>
+    <t>diferència E i PL</t>
   </si>
 </sst>
 </file>
@@ -371,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>4.9993299999999997E-3</v>
       </c>
@@ -399,8 +405,18 @@
       <c r="F1">
         <v>1.9890000000000001</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>4.9993299999999997E-3</v>
+      </c>
+      <c r="I1">
+        <v>1.83134</v>
+      </c>
+      <c r="J1">
+        <f>I1-D1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.49993E-2</v>
       </c>
@@ -421,8 +437,18 @@
         <f t="shared" ref="G2:G65" si="1">(F2-B2)/F2</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1.49993E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.7474700000000001</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J65" si="2">I2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.4999299999999999E-2</v>
       </c>
@@ -443,8 +469,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>2.4999299999999999E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.6821200000000001</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.4999299999999997E-2</v>
       </c>
@@ -465,8 +501,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>3.4999299999999997E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.6280300000000001</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.4999299999999999E-2</v>
       </c>
@@ -487,8 +533,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>4.4999299999999999E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.58128</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.4999300000000001E-2</v>
       </c>
@@ -509,8 +565,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>5.4999300000000001E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.53962</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.4999299999999996E-2</v>
       </c>
@@ -531,8 +597,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>6.4999299999999996E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.50169</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000065512E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.4999300000000005E-2</v>
       </c>
@@ -553,8 +629,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>7.4999300000000005E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.4666300000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8.49993E-2</v>
       </c>
@@ -575,8 +661,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>8.49993E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.4338200000000001</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>-9.9999999998434674E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9.4999299999999995E-2</v>
       </c>
@@ -597,8 +693,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>9.4999299999999995E-2</v>
+      </c>
+      <c r="I10">
+        <v>1.4028700000000001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.104999</v>
       </c>
@@ -622,8 +728,18 @@
         <f t="shared" si="1"/>
         <v>2.2360912981455056E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0.104999</v>
+      </c>
+      <c r="I11">
+        <v>1.3734599999999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000065512E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.114999</v>
       </c>
@@ -644,8 +760,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0.114999</v>
+      </c>
+      <c r="I12">
+        <v>1.34537</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000065512E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.124999</v>
       </c>
@@ -666,8 +792,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0.124999</v>
+      </c>
+      <c r="I13">
+        <v>1.3184199999999999</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000065512E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.13499900000000001</v>
       </c>
@@ -688,8 +824,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0.13499900000000001</v>
+      </c>
+      <c r="I14">
+        <v>1.29247</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.14499899999999999</v>
       </c>
@@ -710,8 +856,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0.14499899999999999</v>
+      </c>
+      <c r="I15">
+        <v>1.2674000000000001</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.154999</v>
       </c>
@@ -732,8 +888,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0.154999</v>
+      </c>
+      <c r="I16">
+        <v>1.2431099999999999</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000065512E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.16499900000000001</v>
       </c>
@@ -754,8 +920,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0.16499900000000001</v>
+      </c>
+      <c r="I17">
+        <v>1.2195400000000001</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.17499899999999999</v>
       </c>
@@ -776,8 +952,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0.17499899999999999</v>
+      </c>
+      <c r="I18">
+        <v>1.19661</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.184999</v>
       </c>
@@ -798,8 +984,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0.184999</v>
+      </c>
+      <c r="I19">
+        <v>1.1742600000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>-9.9999999998434674E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.19499900000000001</v>
       </c>
@@ -820,8 +1016,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>0.19499900000000001</v>
+      </c>
+      <c r="I20">
+        <v>1.15245</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000065512E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.20499899999999999</v>
       </c>
@@ -845,8 +1051,18 @@
         <f t="shared" si="1"/>
         <v>1.5924956369982441E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>0.20499899999999999</v>
+      </c>
+      <c r="I21">
+        <v>1.13113</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000065512E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.214999</v>
       </c>
@@ -867,8 +1083,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>0.214999</v>
+      </c>
+      <c r="I22">
+        <v>1.1102700000000001</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>-9.9999999998434674E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.224999</v>
       </c>
@@ -889,8 +1115,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>0.224999</v>
+      </c>
+      <c r="I23">
+        <v>1.0898399999999999</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.23499900000000001</v>
       </c>
@@ -911,8 +1147,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>0.23499900000000001</v>
+      </c>
+      <c r="I24">
+        <v>1.06979</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000065512E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.24499899999999999</v>
       </c>
@@ -933,8 +1179,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>0.24499899999999999</v>
+      </c>
+      <c r="I25">
+        <v>1.0501100000000001</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>-9.9999999998434674E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.25499899999999998</v>
       </c>
@@ -955,8 +1211,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>0.25499899999999998</v>
+      </c>
+      <c r="I26">
+        <v>1.03078</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000065512E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.26499899999999998</v>
       </c>
@@ -977,8 +1243,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>0.26499899999999998</v>
+      </c>
+      <c r="I27">
+        <v>1.0117700000000001</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.27499899999999999</v>
       </c>
@@ -999,8 +1275,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>0.27499899999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.993058</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>-6.999999999979245E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.284999</v>
       </c>
@@ -1021,8 +1307,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>0.284999</v>
+      </c>
+      <c r="I29">
+        <v>0.97463500000000003</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>-6.999999999979245E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.29499900000000001</v>
       </c>
@@ -1043,8 +1339,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>0.29499900000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.95648200000000005</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>-6.999999999979245E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.30499900000000002</v>
       </c>
@@ -1068,8 +1374,18 @@
         <f t="shared" si="1"/>
         <v>1.1371035940803284E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>0.30499900000000002</v>
+      </c>
+      <c r="I31">
+        <v>0.93858399999999997</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>-6.999999999979245E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.31499899999999997</v>
       </c>
@@ -1090,8 +1406,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>0.31499899999999997</v>
+      </c>
+      <c r="I32">
+        <v>0.920929</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>-6.999999999979245E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.32499899999999998</v>
       </c>
@@ -1112,8 +1438,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>0.32499899999999998</v>
+      </c>
+      <c r="I33">
+        <v>0.903505</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>-6.999999999979245E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.33499899999999999</v>
       </c>
@@ -1134,8 +1470,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>0.33499899999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>-6.999999999979245E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.344999</v>
       </c>
@@ -1156,8 +1502,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0.344999</v>
+      </c>
+      <c r="I35">
+        <v>0.86930399999999997</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>-6.999999999979245E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.35499900000000001</v>
       </c>
@@ -1178,8 +1534,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>0.35499900000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.85250800000000004</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>-6.999999999979245E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.36499900000000002</v>
       </c>
@@ -1200,8 +1566,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>0.36499900000000002</v>
+      </c>
+      <c r="I37">
+        <v>0.83590299999999995</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>-7.0000000000902673E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.37499900000000003</v>
       </c>
@@ -1222,8 +1598,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>0.37499900000000003</v>
+      </c>
+      <c r="I38">
+        <v>0.81948200000000004</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>-6.999999999979245E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.38499899999999998</v>
       </c>
@@ -1244,8 +1630,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>0.38499899999999998</v>
+      </c>
+      <c r="I39">
+        <v>0.80323699999999998</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>-6.0000000000615117E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.39499899999999999</v>
       </c>
@@ -1266,8 +1662,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>0.39499899999999999</v>
+      </c>
+      <c r="I40">
+        <v>0.78715999999999997</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>-6.999999999979245E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.404999</v>
       </c>
@@ -1291,8 +1697,18 @@
         <f t="shared" si="1"/>
         <v>8.5406451612903764E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>0.404999</v>
+      </c>
+      <c r="I41">
+        <v>0.77124700000000002</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>-5.9999999999504894E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.41499900000000001</v>
       </c>
@@ -1313,8 +1729,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>0.41499900000000001</v>
+      </c>
+      <c r="I42">
+        <v>0.75548999999999999</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>-6.999999999979245E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.42499900000000002</v>
       </c>
@@ -1335,8 +1761,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>0.42499900000000002</v>
+      </c>
+      <c r="I43">
+        <v>0.73988500000000001</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>-5.9999999999504894E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.43499900000000002</v>
       </c>
@@ -1357,8 +1793,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>0.43499900000000002</v>
+      </c>
+      <c r="I44">
+        <v>0.72442600000000001</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>-5.9999999999504894E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.44499899999999998</v>
       </c>
@@ -1379,8 +1825,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>0.44499899999999998</v>
+      </c>
+      <c r="I45">
+        <v>0.70910799999999996</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>-7.0000000000902673E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.45499899999999999</v>
       </c>
@@ -1401,8 +1857,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>0.45499899999999999</v>
+      </c>
+      <c r="I46">
+        <v>0.69392799999999999</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>-6.0000000000615117E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.464999</v>
       </c>
@@ -1423,8 +1889,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>0.464999</v>
+      </c>
+      <c r="I47">
+        <v>0.67888099999999996</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>-6.0000000000615117E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.474999</v>
       </c>
@@ -1445,8 +1921,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>0.474999</v>
+      </c>
+      <c r="I48">
+        <v>0.66396299999999997</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>-6.0000000000615117E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.48499900000000001</v>
       </c>
@@ -1467,8 +1953,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>0.48499900000000001</v>
+      </c>
+      <c r="I49">
+        <v>0.64917100000000005</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>-5.9999999999504894E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.49499900000000002</v>
       </c>
@@ -1489,8 +1985,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>0.49499900000000002</v>
+      </c>
+      <c r="I50">
+        <v>0.63450200000000001</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>-5.9999999999504894E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.50499899999999998</v>
       </c>
@@ -1514,8 +2020,18 @@
         <f t="shared" si="1"/>
         <v>5.056360708534673E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>0.50499899999999998</v>
+      </c>
+      <c r="I51">
+        <v>0.61995199999999995</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>-5.000000000032756E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.51499899999999998</v>
       </c>
@@ -1536,8 +2052,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>0.51499899999999998</v>
+      </c>
+      <c r="I52">
+        <v>0.605518</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>-5.000000000032756E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.52499899999999999</v>
       </c>
@@ -1558,8 +2084,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>0.52499899999999999</v>
+      </c>
+      <c r="I53">
+        <v>0.591198</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>-5.000000000032756E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.534999</v>
       </c>
@@ -1580,8 +2116,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>0.534999</v>
+      </c>
+      <c r="I54">
+        <v>0.57698899999999997</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>-5.000000000032756E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.54499900000000001</v>
       </c>
@@ -1602,8 +2148,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>0.54499900000000001</v>
+      </c>
+      <c r="I55">
+        <v>0.56289</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>-5.000000000032756E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.55499900000000002</v>
       </c>
@@ -1624,8 +2180,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>0.55499900000000002</v>
+      </c>
+      <c r="I56">
+        <v>0.54889600000000005</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="2"/>
+        <v>-4.9999999999217337E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.56499900000000003</v>
       </c>
@@ -1646,8 +2212,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>0.56499900000000003</v>
+      </c>
+      <c r="I57">
+        <v>0.53500800000000004</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>-4.9999999999217337E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.57499900000000004</v>
       </c>
@@ -1668,8 +2244,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>0.57499900000000004</v>
+      </c>
+      <c r="I58">
+        <v>0.52122199999999996</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>-5.000000000032756E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.58499900000000005</v>
       </c>
@@ -1690,8 +2276,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>0.58499900000000005</v>
+      </c>
+      <c r="I59">
+        <v>0.50753700000000002</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="2"/>
+        <v>-5.000000000032756E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.59499899999999994</v>
       </c>
@@ -1712,8 +2308,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>0.59499899999999994</v>
+      </c>
+      <c r="I60">
+        <v>0.493952</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000040004E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.60499899999999995</v>
       </c>
@@ -1737,8 +2343,18 @@
         <f t="shared" si="1"/>
         <v>1.5020833333332744E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>0.60499899999999995</v>
+      </c>
+      <c r="I61">
+        <v>0.48046299999999997</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000040004E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.61499899999999996</v>
       </c>
@@ -1759,8 +2375,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>0.61499899999999996</v>
+      </c>
+      <c r="I62">
+        <v>0.46707100000000001</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000040004E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.62499899999999997</v>
       </c>
@@ -1781,8 +2407,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>0.62499899999999997</v>
+      </c>
+      <c r="I63">
+        <v>0.45377299999999998</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000040004E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.63499899999999998</v>
       </c>
@@ -1803,8 +2439,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>0.63499899999999998</v>
+      </c>
+      <c r="I64">
+        <v>0.44056899999999999</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000307558E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.64499899999999999</v>
       </c>
@@ -1825,8 +2471,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>0.64499899999999999</v>
+      </c>
+      <c r="I65">
+        <v>0.427456</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="2"/>
+        <v>-2.9999999999752447E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.654999</v>
       </c>
@@ -1840,15 +2496,25 @@
         <v>0.41443600000000003</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E101" si="2">D66-B66</f>
+        <f t="shared" ref="E66:E101" si="3">D66-B66</f>
         <v>7.4700000000005318E-4</v>
       </c>
       <c r="G66" s="2" t="e">
-        <f t="shared" ref="G66:G100" si="3">(F66-B66)/F66</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G66:G100" si="4">(F66-B66)/F66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H66">
+        <v>0.654999</v>
+      </c>
+      <c r="I66">
+        <v>0.414433</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J101" si="5">I66-D66</f>
+        <v>-3.0000000000307558E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.66499900000000001</v>
       </c>
@@ -1862,15 +2528,25 @@
         <v>0.401503</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6399999999999793E-4</v>
       </c>
       <c r="G67" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H67">
+        <v>0.66499900000000001</v>
+      </c>
+      <c r="I67">
+        <v>0.40150000000000002</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="5"/>
+        <v>-2.9999999999752447E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.67499900000000002</v>
       </c>
@@ -1884,15 +2560,25 @@
         <v>0.38865699999999997</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8199999999997143E-4</v>
       </c>
       <c r="G68" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H68">
+        <v>0.67499900000000002</v>
+      </c>
+      <c r="I68">
+        <v>0.388654</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="5"/>
+        <v>-2.9999999999752447E-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.68499900000000002</v>
       </c>
@@ -1906,15 +2592,25 @@
         <v>0.37589800000000001</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.030000000000312E-4</v>
       </c>
       <c r="G69" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H69">
+        <v>0.68499900000000002</v>
+      </c>
+      <c r="I69">
+        <v>0.37589499999999998</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="5"/>
+        <v>-3.0000000000307558E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.69499900000000003</v>
       </c>
@@ -1928,15 +2624,25 @@
         <v>0.36322500000000002</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.270000000000107E-4</v>
       </c>
       <c r="G70" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H70">
+        <v>0.69499900000000003</v>
+      </c>
+      <c r="I70">
+        <v>0.36322199999999999</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="5"/>
+        <v>-3.0000000000307558E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.70499900000000004</v>
       </c>
@@ -1950,18 +2656,28 @@
         <v>0.35063499999999997</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5199999999996345E-4</v>
       </c>
       <c r="F71">
         <v>0.34899999999999998</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.6762177650430778E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>0.70499900000000004</v>
+      </c>
+      <c r="I71">
+        <v>0.35063299999999997</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000020002E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.71499900000000005</v>
       </c>
@@ -1975,15 +2691,25 @@
         <v>0.33812900000000001</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8100000000003122E-4</v>
       </c>
       <c r="G72" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H72">
+        <v>0.71499900000000005</v>
+      </c>
+      <c r="I72">
+        <v>0.33812700000000001</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000020002E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.72499899999999995</v>
       </c>
@@ -1997,15 +2723,25 @@
         <v>0.32570500000000002</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1300000000001873E-4</v>
       </c>
       <c r="G73" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H73">
+        <v>0.72499899999999995</v>
+      </c>
+      <c r="I73">
+        <v>0.32570300000000002</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000020002E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.73499899999999996</v>
       </c>
@@ -2019,15 +2755,25 @@
         <v>0.313361</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4900000000001024E-4</v>
       </c>
       <c r="G74" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H74">
+        <v>0.73499899999999996</v>
+      </c>
+      <c r="I74">
+        <v>0.313359</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000020002E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.74499899999999997</v>
       </c>
@@ -2041,15 +2787,25 @@
         <v>0.301097</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.7999999999976986E-5</v>
       </c>
       <c r="G75" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H75">
+        <v>0.74499899999999997</v>
+      </c>
+      <c r="I75">
+        <v>0.301095</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000020002E-6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.75499899999999998</v>
       </c>
@@ -2063,15 +2819,25 @@
         <v>0.28891</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9999999999974492E-5</v>
       </c>
       <c r="G76" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H76">
+        <v>0.75499899999999998</v>
+      </c>
+      <c r="I76">
+        <v>0.288908</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000020002E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.76499899999999998</v>
       </c>
@@ -2085,15 +2851,25 @@
         <v>0.27679999999999999</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.2999999999995246E-5</v>
       </c>
       <c r="G77" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H77">
+        <v>0.76499899999999998</v>
+      </c>
+      <c r="I77">
+        <v>0.27679799999999999</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000020002E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.77499899999999999</v>
       </c>
@@ -2107,15 +2883,25 @@
         <v>0.264764</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.299999999998974E-5</v>
       </c>
       <c r="G78" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H78">
+        <v>0.77499899999999999</v>
+      </c>
+      <c r="I78">
+        <v>0.26476300000000003</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="5"/>
+        <v>-9.9999999997324451E-7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.784999</v>
       </c>
@@ -2129,15 +2915,25 @@
         <v>0.252803</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.1699999999997823E-4</v>
       </c>
       <c r="G79" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H79">
+        <v>0.784999</v>
+      </c>
+      <c r="I79">
+        <v>0.252801</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000020002E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.79499900000000001</v>
       </c>
@@ -2151,15 +2947,25 @@
         <v>0.24091299999999999</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.5800000000001924E-4</v>
       </c>
       <c r="G80" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H80">
+        <v>0.79499900000000001</v>
+      </c>
+      <c r="I80">
+        <v>0.24091099999999999</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000020002E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.80499900000000002</v>
       </c>
@@ -2173,18 +2979,28 @@
         <v>0.22909299999999999</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.9500000000000073E-4</v>
       </c>
       <c r="F81">
         <v>0.22700000000000001</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.0079295154184953E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>0.80499900000000002</v>
+      </c>
+      <c r="I81">
+        <v>0.22909199999999999</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000010001E-6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.81499900000000003</v>
       </c>
@@ -2198,15 +3014,25 @@
         <v>0.21734100000000001</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.2700000000000498E-4</v>
       </c>
       <c r="G82" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H82">
+        <v>0.81499900000000003</v>
+      </c>
+      <c r="I82">
+        <v>0.21734000000000001</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000010001E-6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.82499900000000004</v>
       </c>
@@ -2220,15 +3046,25 @@
         <v>0.20565600000000001</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.5400000000000422E-4</v>
       </c>
       <c r="G83" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H83">
+        <v>0.82499900000000004</v>
+      </c>
+      <c r="I83">
+        <v>0.205655</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000010001E-6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.83499900000000005</v>
       </c>
@@ -2242,15 +3078,25 @@
         <v>0.19403500000000001</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.7699999999999947E-4</v>
       </c>
       <c r="G84" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H84">
+        <v>0.83499900000000005</v>
+      </c>
+      <c r="I84">
+        <v>0.19403400000000001</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000010001E-6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.84499899999999994</v>
       </c>
@@ -2264,15 +3110,25 @@
         <v>0.182476</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.9499999999998971E-4</v>
       </c>
       <c r="G85" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H85">
+        <v>0.84499899999999994</v>
+      </c>
+      <c r="I85">
+        <v>0.182476</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.85499899999999995</v>
       </c>
@@ -2286,15 +3142,25 @@
         <v>0.17097699999999999</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.0800000000000272E-4</v>
       </c>
       <c r="G86" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H86">
+        <v>0.85499899999999995</v>
+      </c>
+      <c r="I86">
+        <v>0.17097699999999999</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.86499899999999996</v>
       </c>
@@ -2308,15 +3174,25 @@
         <v>0.15953600000000001</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1599999999998296E-4</v>
       </c>
       <c r="G87" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H87">
+        <v>0.86499899999999996</v>
+      </c>
+      <c r="I87">
+        <v>0.15953500000000001</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000010001E-6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.87499899999999997</v>
       </c>
@@ -2330,15 +3206,25 @@
         <v>0.148149</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1999999999998696E-4</v>
       </c>
       <c r="G88" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88">
+        <v>0.87499899999999997</v>
+      </c>
+      <c r="I88">
+        <v>0.148149</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0.88499899999999998</v>
       </c>
@@ -2352,15 +3238,25 @@
         <v>0.13681499999999999</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1900000000001372E-4</v>
       </c>
       <c r="G89" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H89">
+        <v>0.88499899999999998</v>
+      </c>
+      <c r="I89">
+        <v>0.13681499999999999</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.89499899999999999</v>
       </c>
@@ -2374,15 +3270,25 @@
         <v>0.12553</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1400000000000872E-4</v>
       </c>
       <c r="G90" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H90">
+        <v>0.89499899999999999</v>
+      </c>
+      <c r="I90">
+        <v>0.12553</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.904999</v>
       </c>
@@ -2396,18 +3302,28 @@
         <v>0.114292</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.0299999999999772E-4</v>
       </c>
       <c r="F91">
         <v>0.111</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.2387387387387397E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>0.904999</v>
+      </c>
+      <c r="I91">
+        <v>0.114291</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000010001E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.91499900000000001</v>
       </c>
@@ -2421,15 +3337,25 @@
         <v>0.10309599999999999</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.8900000000001147E-4</v>
       </c>
       <c r="G92" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H92">
+        <v>0.91499900000000001</v>
+      </c>
+      <c r="I92">
+        <v>0.10309599999999999</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.92499900000000002</v>
       </c>
@@ -2443,15 +3369,25 @@
         <v>9.19402E-2</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.7050000000000685E-4</v>
       </c>
       <c r="G93" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H93">
+        <v>0.92499900000000002</v>
+      </c>
+      <c r="I93">
+        <v>9.1939999999999994E-2</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="5"/>
+        <v>-2.0000000000575113E-7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.93499900000000002</v>
       </c>
@@ -2465,15 +3401,25 @@
         <v>8.0820600000000006E-2</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.481999999999901E-4</v>
       </c>
       <c r="G94" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H94">
+        <v>0.93499900000000002</v>
+      </c>
+      <c r="I94">
+        <v>8.0820500000000003E-2</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000287557E-7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.94499900000000003</v>
       </c>
@@ -2487,15 +3433,25 @@
         <v>6.9733600000000007E-2</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.2219999999999185E-4</v>
       </c>
       <c r="G95" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H95">
+        <v>0.94499900000000003</v>
+      </c>
+      <c r="I95">
+        <v>6.9733500000000004E-2</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000287557E-7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.95499900000000004</v>
       </c>
@@ -2509,15 +3465,25 @@
         <v>5.86753E-2</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.9279999999999992E-4</v>
       </c>
       <c r="G96" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H96">
+        <v>0.95499900000000004</v>
+      </c>
+      <c r="I96">
+        <v>5.8675100000000001E-2</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="5"/>
+        <v>-1.9999999999881224E-7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0.96499900000000005</v>
       </c>
@@ -2531,15 +3497,25 @@
         <v>4.7641500000000003E-2</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.6059999999999686E-4</v>
       </c>
       <c r="G97" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H97">
+        <v>0.96499900000000005</v>
+      </c>
+      <c r="I97">
+        <v>4.76414E-2</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000287557E-7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.97499899999999995</v>
       </c>
@@ -2553,15 +3529,25 @@
         <v>3.6628099999999997E-2</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.258000000000023E-4</v>
       </c>
       <c r="G98" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H98">
+        <v>0.97499899999999995</v>
+      </c>
+      <c r="I98">
+        <v>3.6628000000000001E-2</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="5"/>
+        <v>-9.9999999995936673E-8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0.98499899999999996</v>
       </c>
@@ -2575,15 +3561,25 @@
         <v>2.5630500000000001E-2</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.9099999999998208E-5</v>
       </c>
       <c r="G99" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H99">
+        <v>0.98499899999999996</v>
+      </c>
+      <c r="I99">
+        <v>2.5630500000000001E-2</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.99499899999999997</v>
       </c>
@@ -2597,15 +3593,25 @@
         <v>3.66345E-3</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.2879999999999836E-5</v>
       </c>
       <c r="G100" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100">
+        <v>0.99499899999999997</v>
+      </c>
+      <c r="I100">
+        <v>3.66344E-3</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="5"/>
+        <v>-9.9999999999406119E-9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -2619,7 +3625,7 @@
         <v>4.1635300000000002E-7</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F101" s="1">
@@ -2629,8 +3635,18 @@
         <f>(F101-B101)/F101</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1">
+        <v>4.1635300000000002E-7</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -2645,6 +3661,12 @@
       </c>
       <c r="G103" t="s">
         <v>3</v>
+      </c>
+      <c r="I103" t="s">
+        <v>5</v>
+      </c>
+      <c r="J103" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2700,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G65" si="1">F2-B2</f>
+        <f t="shared" ref="G2:G61" si="1">F2-B2</f>
         <v>0</v>
       </c>
       <c r="H2" s="2">
@@ -4329,7 +5351,7 @@
         <v>1E-3</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" ref="G66:G100" si="5">F71-B71</f>
+        <f t="shared" ref="G71:G91" si="5">F71-B71</f>
         <v>-4.5266899999999999E-2</v>
       </c>
       <c r="H71" s="2">
@@ -5069,7 +6091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
@@ -5096,7 +6118,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="1">
-        <f t="shared" ref="G1:G65" si="0">F1-B1</f>
+        <f t="shared" ref="G1:G61" si="0">F1-B1</f>
         <v>0</v>
       </c>
       <c r="H1" s="2">
@@ -6748,7 +7770,7 @@
         <v>1E-3</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" ref="G66:G100" si="5">F71-B71</f>
+        <f t="shared" ref="G71:G91" si="5">F71-B71</f>
         <v>-1.9947199999999998E-2</v>
       </c>
       <c r="H71" s="2">
